--- a/tabular/denv_reference_data.xlsx
+++ b/tabular/denv_reference_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/Dengue-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEAA6FC-36B8-2440-8E9B-2E74805386FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45105B62-F9D2-4D4B-A79D-BDE175C16B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27560" windowHeight="17040" xr2:uid="{3983FCA1-51FF-C04D-9A81-E3489DB1D9F2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="550">
   <si>
     <t>1IV_NC_001477</t>
   </si>
@@ -1680,9 +1680,6 @@
   </si>
   <si>
     <t>rDEN4</t>
-  </si>
-  <si>
-    <t>1VI</t>
   </si>
   <si>
     <t>serotype</t>
@@ -2071,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5813ACA-0E75-F841-9157-B1D7C72560FD}">
   <dimension ref="A1:L147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E106" sqref="A1:L147"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="A1:L147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2095,7 +2092,7 @@
         <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>536</v>
@@ -3224,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>549</v>
+        <v>61</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>352</v>
@@ -3253,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>549</v>
+        <v>61</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>372</v>

--- a/tabular/denv_reference_data.xlsx
+++ b/tabular/denv_reference_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/Dengue-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45105B62-F9D2-4D4B-A79D-BDE175C16B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D1064B-7115-CE4B-AA6F-8629D5A36616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27560" windowHeight="17040" xr2:uid="{3983FCA1-51FF-C04D-9A81-E3489DB1D9F2}"/>
+    <workbookView xWindow="10500" yWindow="500" windowWidth="18120" windowHeight="17500" xr2:uid="{3983FCA1-51FF-C04D-9A81-E3489DB1D9F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref data" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="554">
   <si>
     <t>1IV_NC_001477</t>
   </si>
@@ -899,9 +899,6 @@
     <t>4IV_JF262780</t>
   </si>
   <si>
-    <t>4II</t>
-  </si>
-  <si>
     <t>JN983813</t>
   </si>
   <si>
@@ -971,9 +968,6 @@
     <t>NC_002640</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -1683,6 +1677,24 @@
   </si>
   <si>
     <t>serotype</t>
+  </si>
+  <si>
+    <t>major_lineage</t>
+  </si>
+  <si>
+    <t>minor_lineage</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
+  </si>
+  <si>
+    <t>4II_B</t>
+  </si>
+  <si>
+    <t>4I_A.2</t>
+  </si>
+  <si>
+    <t>4I_B.2</t>
   </si>
 </sst>
 </file>
@@ -2066,63 +2078,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5813ACA-0E75-F841-9157-B1D7C72560FD}">
-  <dimension ref="A1:L147"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="A1:L147"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="22.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="36.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" customWidth="1"/>
-    <col min="7" max="7" width="24.1640625" customWidth="1"/>
-    <col min="10" max="10" width="23.5" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="4" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="36.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.1640625" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" customWidth="1"/>
+    <col min="12" max="12" width="23.5" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>550</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="N1" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2135,23 +2153,29 @@
       <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>490</v>
+      <c r="E2" t="s">
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="H2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I2" t="s">
+        <v>318</v>
+      </c>
+      <c r="J2">
+        <v>2008</v>
+      </c>
+      <c r="M2" t="s">
         <v>320</v>
       </c>
-      <c r="H2">
-        <v>2008</v>
-      </c>
-      <c r="K2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2164,26 +2188,32 @@
       <c r="D3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>492</v>
+      <c r="E3" t="s">
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H3">
+        <v>44</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="H3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I3" t="s">
+        <v>318</v>
+      </c>
+      <c r="J3">
         <v>1998</v>
       </c>
-      <c r="K3" t="s">
-        <v>320</v>
-      </c>
-      <c r="L3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" t="s">
+        <v>318</v>
+      </c>
+      <c r="N3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2196,20 +2226,26 @@
       <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>495</v>
+      <c r="E4" t="s">
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
-      </c>
-      <c r="G4" t="s">
-        <v>320</v>
-      </c>
-      <c r="K4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>44</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="H4" t="s">
+        <v>318</v>
+      </c>
+      <c r="I4" t="s">
+        <v>318</v>
+      </c>
+      <c r="M4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -2222,23 +2258,29 @@
       <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>508</v>
+      <c r="E5" t="s">
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>345</v>
-      </c>
-      <c r="G5" t="s">
-        <v>320</v>
-      </c>
-      <c r="H5">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H5" t="s">
+        <v>343</v>
+      </c>
+      <c r="I5" t="s">
+        <v>318</v>
+      </c>
+      <c r="J5">
         <v>2002</v>
       </c>
-      <c r="K5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2251,23 +2293,29 @@
       <c r="D6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>509</v>
+      <c r="E6" t="s">
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G6" t="s">
-        <v>342</v>
-      </c>
-      <c r="H6">
+        <v>44</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="H6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I6" t="s">
+        <v>340</v>
+      </c>
+      <c r="J6">
         <v>1991</v>
       </c>
-      <c r="K6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -2280,23 +2328,29 @@
       <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>510</v>
+      <c r="E7" t="s">
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H7">
+        <v>44</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="H7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I7" t="s">
+        <v>340</v>
+      </c>
+      <c r="J7">
         <v>1994</v>
       </c>
-      <c r="K7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -2309,23 +2363,29 @@
       <c r="D8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>511</v>
+      <c r="E8" t="s">
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>348</v>
-      </c>
-      <c r="G8" t="s">
-        <v>342</v>
-      </c>
-      <c r="H8">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="H8" t="s">
+        <v>346</v>
+      </c>
+      <c r="I8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J8">
         <v>2001</v>
       </c>
-      <c r="K8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -2338,23 +2398,29 @@
       <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>532</v>
+      <c r="E9" t="s">
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>471</v>
-      </c>
-      <c r="G9" t="s">
-        <v>380</v>
-      </c>
-      <c r="H9">
+        <v>44</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="H9" t="s">
+        <v>469</v>
+      </c>
+      <c r="I9" t="s">
+        <v>378</v>
+      </c>
+      <c r="J9">
         <v>2006</v>
       </c>
-      <c r="K9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2367,23 +2433,29 @@
       <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>383</v>
+      <c r="E10" t="s">
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>471</v>
-      </c>
-      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="s">
+        <v>469</v>
+      </c>
+      <c r="I10" t="s">
+        <v>379</v>
+      </c>
+      <c r="J10">
         <v>1997</v>
       </c>
-      <c r="K10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -2396,23 +2468,29 @@
       <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>387</v>
+      <c r="E11" t="s">
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>369</v>
-      </c>
-      <c r="G11" t="s">
-        <v>320</v>
-      </c>
-      <c r="H11">
+        <v>44</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="H11" t="s">
+        <v>367</v>
+      </c>
+      <c r="I11" t="s">
+        <v>318</v>
+      </c>
+      <c r="J11">
         <v>2003</v>
       </c>
-      <c r="K11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -2425,23 +2503,29 @@
       <c r="D12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>401</v>
+      <c r="E12" t="s">
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>479</v>
-      </c>
-      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="s">
+        <v>477</v>
+      </c>
+      <c r="I12" t="s">
+        <v>397</v>
+      </c>
+      <c r="J12">
         <v>2005</v>
       </c>
-      <c r="K12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -2454,23 +2538,29 @@
       <c r="D13" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>413</v>
+      <c r="E13" t="s">
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>481</v>
-      </c>
-      <c r="G13" t="s">
-        <v>412</v>
-      </c>
-      <c r="H13">
+        <v>44</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="H13" t="s">
+        <v>479</v>
+      </c>
+      <c r="I13" t="s">
+        <v>410</v>
+      </c>
+      <c r="J13">
         <v>2000</v>
       </c>
-      <c r="K13" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -2483,23 +2573,29 @@
       <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>414</v>
+      <c r="E14" t="s">
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>481</v>
-      </c>
-      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="s">
+        <v>479</v>
+      </c>
+      <c r="I14" t="s">
+        <v>410</v>
+      </c>
+      <c r="J14">
         <v>2009</v>
       </c>
-      <c r="K14" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -2512,23 +2608,29 @@
       <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>422</v>
+      <c r="E15" t="s">
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>331</v>
-      </c>
-      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="H15" t="s">
+        <v>329</v>
+      </c>
+      <c r="I15" t="s">
+        <v>318</v>
+      </c>
+      <c r="J15">
+        <v>2009</v>
+      </c>
+      <c r="M15" t="s">
         <v>320</v>
       </c>
-      <c r="H15">
-        <v>2009</v>
-      </c>
-      <c r="K15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2541,26 +2643,32 @@
       <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="3">
         <v>16007</v>
       </c>
-      <c r="F16" t="s">
-        <v>348</v>
-      </c>
-      <c r="G16" t="s">
-        <v>320</v>
-      </c>
-      <c r="H16">
+      <c r="H16" t="s">
+        <v>346</v>
+      </c>
+      <c r="I16" t="s">
+        <v>318</v>
+      </c>
+      <c r="J16">
         <v>1964</v>
       </c>
-      <c r="K16" t="s">
-        <v>320</v>
-      </c>
-      <c r="L16" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" t="s">
+        <v>318</v>
+      </c>
+      <c r="N16" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -2573,23 +2681,29 @@
       <c r="D17" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>504</v>
+      <c r="E17" t="s">
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>345</v>
-      </c>
-      <c r="G17" t="s">
-        <v>320</v>
-      </c>
-      <c r="H17">
+        <v>61</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="H17" t="s">
+        <v>343</v>
+      </c>
+      <c r="I17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J17">
         <v>1971</v>
       </c>
-      <c r="K17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2602,23 +2716,29 @@
       <c r="D18" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>505</v>
+      <c r="E18" t="s">
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>345</v>
-      </c>
-      <c r="G18" t="s">
-        <v>320</v>
-      </c>
-      <c r="H18">
+        <v>61</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="H18" t="s">
+        <v>343</v>
+      </c>
+      <c r="I18" t="s">
+        <v>318</v>
+      </c>
+      <c r="J18">
         <v>1976</v>
       </c>
-      <c r="K18" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -2631,23 +2751,29 @@
       <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>506</v>
+      <c r="E19" t="s">
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>345</v>
-      </c>
-      <c r="G19" t="s">
-        <v>320</v>
-      </c>
-      <c r="H19">
+        <v>61</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="H19" t="s">
+        <v>343</v>
+      </c>
+      <c r="I19" t="s">
+        <v>318</v>
+      </c>
+      <c r="J19">
         <v>1996</v>
       </c>
-      <c r="K19" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -2660,23 +2786,29 @@
       <c r="D20" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>507</v>
+      <c r="E20" t="s">
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>345</v>
-      </c>
-      <c r="G20" t="s">
-        <v>320</v>
-      </c>
-      <c r="H20">
+        <v>61</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H20" t="s">
+        <v>343</v>
+      </c>
+      <c r="I20" t="s">
+        <v>318</v>
+      </c>
+      <c r="J20">
         <v>1998</v>
       </c>
-      <c r="K20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -2689,23 +2821,29 @@
       <c r="D21" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>485</v>
+      <c r="E21" t="s">
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>476</v>
-      </c>
-      <c r="G21" t="s">
-        <v>347</v>
-      </c>
-      <c r="H21">
+        <v>66</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H21" t="s">
+        <v>474</v>
+      </c>
+      <c r="I21" t="s">
+        <v>345</v>
+      </c>
+      <c r="J21">
         <v>1988</v>
       </c>
-      <c r="K21" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -2718,23 +2856,29 @@
       <c r="D22" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>487</v>
+      <c r="E22" t="s">
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>476</v>
-      </c>
-      <c r="G22" t="s">
-        <v>323</v>
-      </c>
-      <c r="H22">
+        <v>66</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H22" t="s">
+        <v>474</v>
+      </c>
+      <c r="I22" t="s">
+        <v>321</v>
+      </c>
+      <c r="J22">
         <v>1998</v>
       </c>
-      <c r="K22" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -2747,23 +2891,29 @@
       <c r="D23" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>488</v>
+      <c r="E23" t="s">
+        <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>476</v>
-      </c>
-      <c r="G23" t="s">
-        <v>323</v>
-      </c>
-      <c r="H23">
+        <v>66</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="H23" t="s">
+        <v>474</v>
+      </c>
+      <c r="I23" t="s">
+        <v>321</v>
+      </c>
+      <c r="J23">
         <v>1998</v>
       </c>
-      <c r="K23" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -2776,23 +2926,29 @@
       <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>489</v>
+      <c r="E24" t="s">
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>324</v>
-      </c>
-      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="H24" t="s">
+        <v>322</v>
+      </c>
+      <c r="I24" t="s">
+        <v>318</v>
+      </c>
+      <c r="J24">
+        <v>2004</v>
+      </c>
+      <c r="M24" t="s">
         <v>320</v>
       </c>
-      <c r="H24">
-        <v>2004</v>
-      </c>
-      <c r="K24" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -2805,23 +2961,29 @@
       <c r="D25" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>525</v>
+      <c r="E25" t="s">
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>477</v>
-      </c>
-      <c r="G25" t="s">
-        <v>353</v>
-      </c>
-      <c r="H25">
+        <v>66</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="H25" t="s">
+        <v>475</v>
+      </c>
+      <c r="I25" t="s">
+        <v>351</v>
+      </c>
+      <c r="J25">
         <v>2001</v>
       </c>
-      <c r="K25" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -2834,23 +2996,29 @@
       <c r="D26" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>526</v>
+      <c r="E26" t="s">
+        <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>477</v>
-      </c>
-      <c r="G26" t="s">
-        <v>353</v>
-      </c>
-      <c r="H26">
+        <v>66</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="H26" t="s">
+        <v>475</v>
+      </c>
+      <c r="I26" t="s">
+        <v>351</v>
+      </c>
+      <c r="J26">
         <v>2001</v>
       </c>
-      <c r="K26" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -2863,23 +3031,29 @@
       <c r="D27" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>527</v>
+      <c r="E27" t="s">
+        <v>66</v>
       </c>
       <c r="F27" t="s">
-        <v>471</v>
-      </c>
-      <c r="G27" t="s">
-        <v>472</v>
-      </c>
-      <c r="H27">
+        <v>66</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="H27" t="s">
+        <v>469</v>
+      </c>
+      <c r="I27" t="s">
+        <v>470</v>
+      </c>
+      <c r="J27">
         <v>1995</v>
       </c>
-      <c r="K27" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="M27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -2892,23 +3066,29 @@
       <c r="D28" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>382</v>
+      <c r="E28" t="s">
+        <v>66</v>
       </c>
       <c r="F28" t="s">
-        <v>471</v>
-      </c>
-      <c r="G28" t="s">
-        <v>381</v>
-      </c>
-      <c r="H28">
+        <v>66</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H28" t="s">
+        <v>469</v>
+      </c>
+      <c r="I28" t="s">
+        <v>379</v>
+      </c>
+      <c r="J28">
         <v>2003</v>
       </c>
-      <c r="K28" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="M28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -2921,23 +3101,29 @@
       <c r="D29" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>411</v>
+      <c r="E29" t="s">
+        <v>66</v>
       </c>
       <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>407</v>
+      </c>
+      <c r="I29" t="s">
+        <v>318</v>
+      </c>
+      <c r="J29">
+        <v>2004</v>
+      </c>
+      <c r="M29" t="s">
         <v>320</v>
       </c>
-      <c r="H29">
-        <v>2004</v>
-      </c>
-      <c r="K29" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -2950,29 +3136,35 @@
       <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="H30" t="s">
+        <v>355</v>
+      </c>
+      <c r="I30" t="s">
+        <v>318</v>
+      </c>
+      <c r="J30">
+        <v>2005</v>
+      </c>
+      <c r="K30" t="s">
+        <v>430</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
         <v>431</v>
       </c>
-      <c r="F30" t="s">
-        <v>357</v>
-      </c>
-      <c r="G30" t="s">
-        <v>320</v>
-      </c>
-      <c r="H30">
-        <v>2005</v>
-      </c>
-      <c r="I30" t="s">
-        <v>432</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -2986,22 +3178,28 @@
         <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>547</v>
+        <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>475</v>
+        <v>66</v>
       </c>
       <c r="G31" t="s">
-        <v>474</v>
-      </c>
-      <c r="H31">
+        <v>545</v>
+      </c>
+      <c r="H31" t="s">
+        <v>473</v>
+      </c>
+      <c r="I31" t="s">
+        <v>472</v>
+      </c>
+      <c r="J31">
         <v>1974</v>
       </c>
-      <c r="K31" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="M31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -3014,23 +3212,29 @@
       <c r="D32" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>535</v>
+      <c r="E32" t="s">
+        <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>475</v>
-      </c>
-      <c r="G32" t="s">
-        <v>474</v>
-      </c>
-      <c r="H32">
+        <v>66</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H32" t="s">
+        <v>473</v>
+      </c>
+      <c r="I32" t="s">
+        <v>472</v>
+      </c>
+      <c r="J32">
         <v>1974</v>
       </c>
-      <c r="K32" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -3043,23 +3247,29 @@
       <c r="D33" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>326</v>
+      <c r="E33" t="s">
+        <v>78</v>
       </c>
       <c r="F33" t="s">
-        <v>343</v>
-      </c>
-      <c r="G33" t="s">
-        <v>325</v>
-      </c>
-      <c r="H33">
+        <v>78</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H33" t="s">
+        <v>341</v>
+      </c>
+      <c r="I33" t="s">
+        <v>323</v>
+      </c>
+      <c r="J33">
         <v>2001</v>
       </c>
-      <c r="K33" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -3072,26 +3282,32 @@
       <c r="D34" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>493</v>
+      <c r="E34" t="s">
+        <v>78</v>
       </c>
       <c r="F34" t="s">
-        <v>343</v>
-      </c>
-      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H34" t="s">
+        <v>341</v>
+      </c>
+      <c r="I34" t="s">
+        <v>318</v>
+      </c>
+      <c r="J34">
+        <v>1997</v>
+      </c>
+      <c r="M34" t="s">
         <v>320</v>
       </c>
-      <c r="H34">
-        <v>1997</v>
-      </c>
-      <c r="K34" t="s">
-        <v>322</v>
-      </c>
-      <c r="L34" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="N34" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -3104,26 +3320,32 @@
       <c r="D35" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>497</v>
+      <c r="E35" t="s">
+        <v>78</v>
       </c>
       <c r="F35" t="s">
-        <v>544</v>
-      </c>
-      <c r="G35" t="s">
-        <v>320</v>
-      </c>
-      <c r="H35">
+        <v>78</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H35" t="s">
+        <v>542</v>
+      </c>
+      <c r="I35" t="s">
+        <v>318</v>
+      </c>
+      <c r="J35">
         <v>2000</v>
       </c>
-      <c r="K35" t="s">
-        <v>320</v>
-      </c>
-      <c r="L35" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" t="s">
+        <v>318</v>
+      </c>
+      <c r="N35" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -3136,23 +3358,29 @@
       <c r="D36" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>335</v>
+      <c r="E36" t="s">
+        <v>78</v>
       </c>
       <c r="F36" t="s">
-        <v>544</v>
-      </c>
-      <c r="G36" t="s">
-        <v>320</v>
-      </c>
-      <c r="H36">
+        <v>78</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H36" t="s">
+        <v>542</v>
+      </c>
+      <c r="I36" t="s">
+        <v>318</v>
+      </c>
+      <c r="J36">
         <v>2000</v>
       </c>
-      <c r="K36" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -3165,23 +3393,29 @@
       <c r="D37" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>336</v>
+      <c r="E37" t="s">
+        <v>78</v>
       </c>
       <c r="F37" t="s">
-        <v>544</v>
-      </c>
-      <c r="G37" t="s">
-        <v>320</v>
-      </c>
-      <c r="H37">
+        <v>78</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H37" t="s">
+        <v>542</v>
+      </c>
+      <c r="I37" t="s">
+        <v>318</v>
+      </c>
+      <c r="J37">
         <v>2000</v>
       </c>
-      <c r="K37" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -3194,23 +3428,29 @@
       <c r="D38" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>350</v>
+      <c r="E38" t="s">
+        <v>78</v>
       </c>
       <c r="F38" t="s">
-        <v>349</v>
-      </c>
-      <c r="G38" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H38" t="s">
+        <v>347</v>
+      </c>
+      <c r="I38" t="s">
+        <v>318</v>
+      </c>
+      <c r="J38">
+        <v>2004</v>
+      </c>
+      <c r="M38" t="s">
         <v>320</v>
       </c>
-      <c r="H38">
-        <v>2004</v>
-      </c>
-      <c r="K38" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -3223,23 +3463,29 @@
       <c r="D39" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>352</v>
+      <c r="E39" t="s">
+        <v>61</v>
       </c>
       <c r="F39" t="s">
-        <v>351</v>
-      </c>
-      <c r="G39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="H39" t="s">
+        <v>349</v>
+      </c>
+      <c r="I39" t="s">
+        <v>318</v>
+      </c>
+      <c r="J39">
+        <v>1993</v>
+      </c>
+      <c r="M39" t="s">
         <v>320</v>
       </c>
-      <c r="H39">
-        <v>1993</v>
-      </c>
-      <c r="K39" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -3252,23 +3498,29 @@
       <c r="D40" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>372</v>
+      <c r="E40" t="s">
+        <v>61</v>
       </c>
       <c r="F40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="G40" t="s">
-        <v>320</v>
-      </c>
-      <c r="H40">
+      <c r="H40" t="s">
+        <v>368</v>
+      </c>
+      <c r="I40" t="s">
+        <v>318</v>
+      </c>
+      <c r="J40">
         <v>2005</v>
       </c>
-      <c r="K40" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -3281,23 +3533,29 @@
       <c r="D41" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>373</v>
+      <c r="E41" t="s">
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>477</v>
-      </c>
-      <c r="G41" t="s">
-        <v>368</v>
-      </c>
-      <c r="H41">
+        <v>78</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="H41" t="s">
+        <v>475</v>
+      </c>
+      <c r="I41" t="s">
+        <v>366</v>
+      </c>
+      <c r="J41">
         <v>1998</v>
       </c>
-      <c r="K41" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -3310,23 +3568,29 @@
       <c r="D42" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>385</v>
+      <c r="E42" t="s">
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>477</v>
-      </c>
-      <c r="G42" t="s">
-        <v>368</v>
-      </c>
-      <c r="H42">
+        <v>78</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H42" t="s">
+        <v>475</v>
+      </c>
+      <c r="I42" t="s">
+        <v>366</v>
+      </c>
+      <c r="J42">
         <v>1995</v>
       </c>
-      <c r="K42" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -3339,23 +3603,29 @@
       <c r="D43" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>419</v>
+      <c r="E43" t="s">
+        <v>78</v>
       </c>
       <c r="F43" t="s">
-        <v>478</v>
-      </c>
-      <c r="G43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H43" t="s">
+        <v>476</v>
+      </c>
+      <c r="I43" t="s">
+        <v>416</v>
+      </c>
+      <c r="J43">
+        <v>2008</v>
+      </c>
+      <c r="M43" t="s">
         <v>418</v>
       </c>
-      <c r="H43">
-        <v>2008</v>
-      </c>
-      <c r="K43" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -3368,23 +3638,29 @@
       <c r="D44" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>467</v>
+      <c r="E44" t="s">
+        <v>78</v>
       </c>
       <c r="F44" t="s">
-        <v>368</v>
-      </c>
-      <c r="G44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="H44" t="s">
+        <v>366</v>
+      </c>
+      <c r="I44" t="s">
+        <v>318</v>
+      </c>
+      <c r="J44">
+        <v>2012</v>
+      </c>
+      <c r="M44" t="s">
         <v>320</v>
       </c>
-      <c r="H44">
-        <v>2012</v>
-      </c>
-      <c r="K44" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -3397,23 +3673,29 @@
       <c r="D45" t="s">
         <v>140</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" s="3">
         <v>131</v>
       </c>
-      <c r="F45" t="s">
-        <v>478</v>
-      </c>
-      <c r="G45" t="s">
-        <v>320</v>
-      </c>
-      <c r="H45">
+      <c r="H45" t="s">
+        <v>476</v>
+      </c>
+      <c r="I45" t="s">
+        <v>318</v>
+      </c>
+      <c r="J45">
         <v>1992</v>
       </c>
-      <c r="K45" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>141</v>
       </c>
@@ -3426,23 +3708,29 @@
       <c r="D46" t="s">
         <v>140</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>367</v>
+      <c r="E46" t="s">
+        <v>140</v>
       </c>
       <c r="F46" t="s">
-        <v>366</v>
-      </c>
-      <c r="G46" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H46" t="s">
+        <v>364</v>
+      </c>
+      <c r="I46" t="s">
+        <v>318</v>
+      </c>
+      <c r="J46">
+        <v>1995</v>
+      </c>
+      <c r="M46" t="s">
         <v>320</v>
       </c>
-      <c r="H46">
-        <v>1995</v>
-      </c>
-      <c r="K46" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>143</v>
       </c>
@@ -3455,23 +3743,29 @@
       <c r="D47" t="s">
         <v>140</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="3">
         <v>1328</v>
       </c>
-      <c r="F47" t="s">
-        <v>368</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
+        <v>366</v>
+      </c>
+      <c r="I47" t="s">
+        <v>318</v>
+      </c>
+      <c r="J47">
+        <v>1977</v>
+      </c>
+      <c r="M47" t="s">
         <v>320</v>
       </c>
-      <c r="H47">
-        <v>1977</v>
-      </c>
-      <c r="K47" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>184</v>
       </c>
@@ -3484,23 +3778,29 @@
       <c r="D48" t="s">
         <v>172</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48" t="s">
+        <v>172</v>
+      </c>
+      <c r="G48" s="3">
         <v>1349</v>
       </c>
-      <c r="F48" t="s">
-        <v>359</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
+        <v>357</v>
+      </c>
+      <c r="I48" t="s">
+        <v>318</v>
+      </c>
+      <c r="J48">
+        <v>1983</v>
+      </c>
+      <c r="M48" t="s">
         <v>320</v>
       </c>
-      <c r="H48">
-        <v>1983</v>
-      </c>
-      <c r="K48" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -3513,23 +3813,29 @@
       <c r="D49" t="s">
         <v>172</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>529</v>
+      <c r="E49" t="s">
+        <v>172</v>
       </c>
       <c r="F49" t="s">
-        <v>369</v>
-      </c>
-      <c r="G49" t="s">
-        <v>320</v>
-      </c>
-      <c r="H49">
+        <v>172</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="H49" t="s">
+        <v>367</v>
+      </c>
+      <c r="I49" t="s">
+        <v>318</v>
+      </c>
+      <c r="J49">
         <v>2005</v>
       </c>
-      <c r="K49" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>181</v>
       </c>
@@ -3542,23 +3848,29 @@
       <c r="D50" t="s">
         <v>172</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>530</v>
+      <c r="E50" t="s">
+        <v>172</v>
       </c>
       <c r="F50" t="s">
-        <v>369</v>
-      </c>
-      <c r="G50" t="s">
-        <v>320</v>
-      </c>
-      <c r="H50">
+        <v>172</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="H50" t="s">
+        <v>367</v>
+      </c>
+      <c r="I50" t="s">
+        <v>318</v>
+      </c>
+      <c r="J50">
         <v>2005</v>
       </c>
-      <c r="K50" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -3571,23 +3883,29 @@
       <c r="D51" t="s">
         <v>172</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>531</v>
+      <c r="E51" t="s">
+        <v>172</v>
       </c>
       <c r="F51" t="s">
-        <v>369</v>
-      </c>
-      <c r="G51" t="s">
-        <v>320</v>
-      </c>
-      <c r="H51">
+        <v>172</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H51" t="s">
+        <v>367</v>
+      </c>
+      <c r="I51" t="s">
+        <v>318</v>
+      </c>
+      <c r="J51">
         <v>2005</v>
       </c>
-      <c r="K51" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -3600,23 +3918,29 @@
       <c r="D52" t="s">
         <v>172</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>371</v>
+      <c r="E52" t="s">
+        <v>172</v>
       </c>
       <c r="F52" t="s">
-        <v>370</v>
-      </c>
-      <c r="G52" t="s">
-        <v>320</v>
-      </c>
-      <c r="H52">
+        <v>172</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H52" t="s">
+        <v>368</v>
+      </c>
+      <c r="I52" t="s">
+        <v>318</v>
+      </c>
+      <c r="J52">
         <v>2006</v>
       </c>
-      <c r="K52" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -3629,23 +3953,29 @@
       <c r="D53" t="s">
         <v>172</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>395</v>
+      <c r="E53" t="s">
+        <v>172</v>
       </c>
       <c r="F53" t="s">
-        <v>394</v>
-      </c>
-      <c r="G53" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H53" t="s">
+        <v>392</v>
+      </c>
+      <c r="I53" t="s">
+        <v>318</v>
+      </c>
+      <c r="J53">
+        <v>2006</v>
+      </c>
+      <c r="M53" t="s">
         <v>320</v>
       </c>
-      <c r="H53">
-        <v>2006</v>
-      </c>
-      <c r="K53" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>179</v>
       </c>
@@ -3658,29 +3988,35 @@
       <c r="D54" t="s">
         <v>172</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>442</v>
+      <c r="E54" t="s">
+        <v>172</v>
       </c>
       <c r="F54" t="s">
-        <v>476</v>
-      </c>
-      <c r="G54" t="s">
+        <v>172</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="H54" t="s">
+        <v>474</v>
+      </c>
+      <c r="I54" t="s">
+        <v>439</v>
+      </c>
+      <c r="J54">
+        <v>2007</v>
+      </c>
+      <c r="K54" t="s">
         <v>441</v>
       </c>
-      <c r="H54">
-        <v>2007</v>
-      </c>
-      <c r="I54" t="s">
-        <v>443</v>
-      </c>
-      <c r="J54">
+      <c r="L54">
         <v>21</v>
       </c>
-      <c r="K54" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -3693,29 +4029,35 @@
       <c r="D55" t="s">
         <v>172</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>444</v>
+      <c r="E55" t="s">
+        <v>172</v>
       </c>
       <c r="F55" t="s">
-        <v>476</v>
-      </c>
-      <c r="G55" t="s">
-        <v>441</v>
-      </c>
-      <c r="H55">
+        <v>172</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="H55" t="s">
+        <v>474</v>
+      </c>
+      <c r="I55" t="s">
+        <v>439</v>
+      </c>
+      <c r="J55">
         <v>2007</v>
       </c>
-      <c r="I55" t="s">
-        <v>445</v>
-      </c>
-      <c r="J55">
+      <c r="K55" t="s">
+        <v>443</v>
+      </c>
+      <c r="L55">
         <v>17</v>
       </c>
-      <c r="K55" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>177</v>
       </c>
@@ -3728,29 +4070,35 @@
       <c r="D56" t="s">
         <v>172</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>446</v>
+      <c r="E56" t="s">
+        <v>172</v>
       </c>
       <c r="F56" t="s">
-        <v>476</v>
-      </c>
-      <c r="G56" t="s">
-        <v>441</v>
-      </c>
-      <c r="H56">
+        <v>172</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H56" t="s">
+        <v>474</v>
+      </c>
+      <c r="I56" t="s">
+        <v>439</v>
+      </c>
+      <c r="J56">
         <v>2010</v>
       </c>
-      <c r="I56" t="s">
-        <v>447</v>
-      </c>
-      <c r="J56">
+      <c r="K56" t="s">
+        <v>445</v>
+      </c>
+      <c r="L56">
         <v>5</v>
       </c>
-      <c r="K56" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -3763,23 +4111,29 @@
       <c r="D57" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>462</v>
+      <c r="E57" t="s">
+        <v>172</v>
       </c>
       <c r="F57" t="s">
-        <v>483</v>
-      </c>
-      <c r="G57" t="s">
-        <v>461</v>
-      </c>
-      <c r="H57">
+        <v>172</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H57" t="s">
+        <v>481</v>
+      </c>
+      <c r="I57" t="s">
+        <v>459</v>
+      </c>
+      <c r="J57">
         <v>2011</v>
       </c>
-      <c r="K57" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>174</v>
       </c>
@@ -3792,29 +4146,35 @@
       <c r="D58" t="s">
         <v>172</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>469</v>
+      <c r="E58" t="s">
+        <v>172</v>
       </c>
       <c r="F58" t="s">
-        <v>468</v>
-      </c>
-      <c r="G58" t="s">
+        <v>172</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="H58" t="s">
+        <v>466</v>
+      </c>
+      <c r="I58" t="s">
+        <v>318</v>
+      </c>
+      <c r="J58">
+        <v>2014</v>
+      </c>
+      <c r="K58" t="s">
+        <v>430</v>
+      </c>
+      <c r="L58">
+        <v>13</v>
+      </c>
+      <c r="M58" t="s">
         <v>320</v>
       </c>
-      <c r="H58">
-        <v>2014</v>
-      </c>
-      <c r="I58" t="s">
-        <v>432</v>
-      </c>
-      <c r="J58">
-        <v>13</v>
-      </c>
-      <c r="K58" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -3827,23 +4187,29 @@
       <c r="D59" t="s">
         <v>172</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>470</v>
+      <c r="E59" t="s">
+        <v>172</v>
       </c>
       <c r="F59" t="s">
-        <v>369</v>
-      </c>
-      <c r="G59" t="s">
+        <v>172</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="H59" t="s">
+        <v>367</v>
+      </c>
+      <c r="I59" t="s">
+        <v>318</v>
+      </c>
+      <c r="J59">
+        <v>2012</v>
+      </c>
+      <c r="M59" t="s">
         <v>320</v>
       </c>
-      <c r="H59">
-        <v>2012</v>
-      </c>
-      <c r="K59" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -3856,23 +4222,29 @@
       <c r="D60" t="s">
         <v>159</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>486</v>
+      <c r="E60" t="s">
+        <v>159</v>
       </c>
       <c r="F60" t="s">
-        <v>321</v>
-      </c>
-      <c r="G60" t="s">
+        <v>159</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="H60" t="s">
+        <v>319</v>
+      </c>
+      <c r="I60" t="s">
+        <v>318</v>
+      </c>
+      <c r="J60">
+        <v>2001</v>
+      </c>
+      <c r="M60" t="s">
         <v>320</v>
       </c>
-      <c r="H60">
-        <v>2001</v>
-      </c>
-      <c r="K60" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>162</v>
       </c>
@@ -3885,26 +4257,32 @@
       <c r="D61" t="s">
         <v>159</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>496</v>
+      <c r="E61" t="s">
+        <v>159</v>
       </c>
       <c r="F61" t="s">
-        <v>343</v>
-      </c>
-      <c r="G61" t="s">
-        <v>320</v>
-      </c>
-      <c r="H61">
+        <v>159</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="H61" t="s">
+        <v>341</v>
+      </c>
+      <c r="I61" t="s">
+        <v>318</v>
+      </c>
+      <c r="J61">
         <v>1998</v>
       </c>
-      <c r="K61" t="s">
-        <v>320</v>
-      </c>
-      <c r="L61" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" t="s">
+        <v>318</v>
+      </c>
+      <c r="N61" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>171</v>
       </c>
@@ -3917,23 +4295,29 @@
       <c r="D62" t="s">
         <v>159</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>503</v>
+      <c r="E62" t="s">
+        <v>159</v>
       </c>
       <c r="F62" t="s">
-        <v>344</v>
-      </c>
-      <c r="G62" t="s">
-        <v>320</v>
-      </c>
-      <c r="H62">
+        <v>159</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="H62" t="s">
+        <v>342</v>
+      </c>
+      <c r="I62" t="s">
+        <v>318</v>
+      </c>
+      <c r="J62">
         <v>1997</v>
       </c>
-      <c r="K62" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>160</v>
       </c>
@@ -3946,23 +4330,29 @@
       <c r="D63" t="s">
         <v>159</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>374</v>
+      <c r="E63" t="s">
+        <v>159</v>
       </c>
       <c r="F63" t="s">
-        <v>477</v>
-      </c>
-      <c r="G63" t="s">
-        <v>368</v>
-      </c>
-      <c r="H63">
+        <v>159</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H63" t="s">
+        <v>475</v>
+      </c>
+      <c r="I63" t="s">
+        <v>366</v>
+      </c>
+      <c r="J63">
         <v>1989</v>
       </c>
-      <c r="K63" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>168</v>
       </c>
@@ -3975,23 +4365,29 @@
       <c r="D64" t="s">
         <v>159</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>376</v>
+      <c r="E64" t="s">
+        <v>159</v>
       </c>
       <c r="F64" t="s">
-        <v>477</v>
-      </c>
-      <c r="G64" t="s">
-        <v>368</v>
-      </c>
-      <c r="H64">
+        <v>159</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H64" t="s">
+        <v>475</v>
+      </c>
+      <c r="I64" t="s">
+        <v>366</v>
+      </c>
+      <c r="J64">
         <v>2005</v>
       </c>
-      <c r="K64" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>170</v>
       </c>
@@ -4004,23 +4400,29 @@
       <c r="D65" t="s">
         <v>159</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>377</v>
+      <c r="E65" t="s">
+        <v>159</v>
       </c>
       <c r="F65" t="s">
-        <v>477</v>
-      </c>
-      <c r="G65" t="s">
-        <v>368</v>
-      </c>
-      <c r="H65">
+        <v>159</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="H65" t="s">
+        <v>475</v>
+      </c>
+      <c r="I65" t="s">
+        <v>366</v>
+      </c>
+      <c r="J65">
         <v>2005</v>
       </c>
-      <c r="K65" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>167</v>
       </c>
@@ -4033,23 +4435,29 @@
       <c r="D66" t="s">
         <v>159</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>398</v>
+      <c r="E66" t="s">
+        <v>159</v>
       </c>
       <c r="F66" t="s">
-        <v>397</v>
-      </c>
-      <c r="G66" t="s">
+        <v>159</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="H66" t="s">
+        <v>395</v>
+      </c>
+      <c r="I66" t="s">
+        <v>318</v>
+      </c>
+      <c r="J66">
+        <v>2002</v>
+      </c>
+      <c r="M66" t="s">
         <v>320</v>
       </c>
-      <c r="H66">
-        <v>2002</v>
-      </c>
-      <c r="K66" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>166</v>
       </c>
@@ -4062,23 +4470,29 @@
       <c r="D67" t="s">
         <v>159</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>403</v>
+      <c r="E67" t="s">
+        <v>159</v>
       </c>
       <c r="F67" t="s">
-        <v>480</v>
-      </c>
-      <c r="G67" t="s">
-        <v>402</v>
-      </c>
-      <c r="H67">
+        <v>159</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H67" t="s">
+        <v>478</v>
+      </c>
+      <c r="I67" t="s">
+        <v>400</v>
+      </c>
+      <c r="J67">
         <v>2007</v>
       </c>
-      <c r="K67" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>161</v>
       </c>
@@ -4091,23 +4505,29 @@
       <c r="D68" t="s">
         <v>159</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>533</v>
+      <c r="E68" t="s">
+        <v>159</v>
       </c>
       <c r="F68" t="s">
-        <v>368</v>
-      </c>
-      <c r="G68" t="s">
+        <v>159</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H68" t="s">
+        <v>366</v>
+      </c>
+      <c r="I68" t="s">
+        <v>318</v>
+      </c>
+      <c r="J68">
+        <v>1994</v>
+      </c>
+      <c r="M68" t="s">
         <v>320</v>
       </c>
-      <c r="H68">
-        <v>1994</v>
-      </c>
-      <c r="K68" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>163</v>
       </c>
@@ -4120,23 +4540,29 @@
       <c r="D69" t="s">
         <v>159</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>406</v>
+      <c r="E69" t="s">
+        <v>159</v>
       </c>
       <c r="F69" t="s">
-        <v>427</v>
-      </c>
-      <c r="G69" t="s">
-        <v>405</v>
-      </c>
-      <c r="H69">
+        <v>159</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="H69" t="s">
+        <v>425</v>
+      </c>
+      <c r="I69" t="s">
+        <v>403</v>
+      </c>
+      <c r="J69">
         <v>1990</v>
       </c>
-      <c r="K69" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -4149,23 +4575,29 @@
       <c r="D70" t="s">
         <v>159</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>424</v>
+      <c r="E70" t="s">
+        <v>159</v>
       </c>
       <c r="F70" t="s">
-        <v>482</v>
-      </c>
-      <c r="G70" t="s">
-        <v>423</v>
-      </c>
-      <c r="H70">
+        <v>159</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="H70" t="s">
+        <v>480</v>
+      </c>
+      <c r="I70" t="s">
+        <v>421</v>
+      </c>
+      <c r="J70">
         <v>2009</v>
       </c>
-      <c r="K70" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>164</v>
       </c>
@@ -4178,26 +4610,32 @@
       <c r="D71" t="s">
         <v>159</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>534</v>
+      <c r="E71" t="s">
+        <v>159</v>
       </c>
       <c r="F71" t="s">
-        <v>473</v>
-      </c>
-      <c r="G71" t="s">
-        <v>320</v>
-      </c>
-      <c r="H71">
+        <v>159</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="H71" t="s">
+        <v>471</v>
+      </c>
+      <c r="I71" t="s">
+        <v>318</v>
+      </c>
+      <c r="J71">
         <v>1983</v>
       </c>
-      <c r="K71" t="s">
-        <v>320</v>
-      </c>
-      <c r="L71" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71" t="s">
+        <v>318</v>
+      </c>
+      <c r="N71" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -4210,23 +4648,29 @@
       <c r="D72" t="s">
         <v>144</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>491</v>
+      <c r="E72" t="s">
+        <v>144</v>
       </c>
       <c r="F72" t="s">
-        <v>484</v>
-      </c>
-      <c r="G72" t="s">
-        <v>320</v>
-      </c>
-      <c r="K72" t="s">
-        <v>320</v>
-      </c>
-      <c r="L72" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>144</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="H72" t="s">
+        <v>482</v>
+      </c>
+      <c r="I72" t="s">
+        <v>318</v>
+      </c>
+      <c r="M72" t="s">
+        <v>318</v>
+      </c>
+      <c r="N72" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>147</v>
       </c>
@@ -4239,23 +4683,29 @@
       <c r="D73" t="s">
         <v>144</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
+        <v>144</v>
+      </c>
+      <c r="G73" s="3">
         <v>44</v>
       </c>
-      <c r="F73" t="s">
-        <v>471</v>
-      </c>
-      <c r="G73" t="s">
-        <v>328</v>
-      </c>
-      <c r="H73">
+      <c r="H73" t="s">
+        <v>469</v>
+      </c>
+      <c r="I73" t="s">
+        <v>326</v>
+      </c>
+      <c r="J73">
         <v>1989</v>
       </c>
-      <c r="K73" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>148</v>
       </c>
@@ -4268,23 +4718,29 @@
       <c r="D74" t="s">
         <v>144</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>421</v>
+      <c r="E74" t="s">
+        <v>144</v>
       </c>
       <c r="F74" t="s">
-        <v>327</v>
-      </c>
-      <c r="G74" t="s">
+        <v>144</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="H74" t="s">
+        <v>325</v>
+      </c>
+      <c r="I74" t="s">
+        <v>318</v>
+      </c>
+      <c r="J74">
+        <v>2008</v>
+      </c>
+      <c r="M74" t="s">
         <v>320</v>
       </c>
-      <c r="H74">
-        <v>2008</v>
-      </c>
-      <c r="K74" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>145</v>
       </c>
@@ -4297,23 +4753,29 @@
       <c r="D75" t="s">
         <v>144</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>465</v>
+      <c r="E75" t="s">
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>409</v>
-      </c>
-      <c r="G75" t="s">
+        <v>144</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="H75" t="s">
+        <v>407</v>
+      </c>
+      <c r="I75" t="s">
+        <v>318</v>
+      </c>
+      <c r="J75">
+        <v>1995</v>
+      </c>
+      <c r="M75" t="s">
         <v>320</v>
       </c>
-      <c r="H75">
-        <v>1995</v>
-      </c>
-      <c r="K75" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>146</v>
       </c>
@@ -4326,23 +4788,29 @@
       <c r="D76" t="s">
         <v>144</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>466</v>
+      <c r="E76" t="s">
+        <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>409</v>
-      </c>
-      <c r="G76" t="s">
+        <v>144</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="H76" t="s">
+        <v>407</v>
+      </c>
+      <c r="I76" t="s">
+        <v>318</v>
+      </c>
+      <c r="J76">
+        <v>1996</v>
+      </c>
+      <c r="M76" t="s">
         <v>320</v>
       </c>
-      <c r="H76">
-        <v>1996</v>
-      </c>
-      <c r="K76" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>154</v>
       </c>
@@ -4355,23 +4823,29 @@
       <c r="D77" t="s">
         <v>139</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>519</v>
+      <c r="E77" t="s">
+        <v>139</v>
       </c>
       <c r="F77" t="s">
-        <v>348</v>
-      </c>
-      <c r="G77" t="s">
-        <v>342</v>
-      </c>
-      <c r="H77">
+        <v>139</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H77" t="s">
+        <v>346</v>
+      </c>
+      <c r="I77" t="s">
+        <v>340</v>
+      </c>
+      <c r="J77">
         <v>2001</v>
       </c>
-      <c r="K77" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -4384,23 +4858,29 @@
       <c r="D78" t="s">
         <v>139</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>520</v>
+      <c r="E78" t="s">
+        <v>139</v>
       </c>
       <c r="F78" t="s">
-        <v>348</v>
-      </c>
-      <c r="G78" t="s">
-        <v>342</v>
-      </c>
-      <c r="H78">
+        <v>139</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="H78" t="s">
+        <v>346</v>
+      </c>
+      <c r="I78" t="s">
+        <v>340</v>
+      </c>
+      <c r="J78">
         <v>1999</v>
       </c>
-      <c r="K78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -4413,23 +4893,29 @@
       <c r="D79" t="s">
         <v>139</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>521</v>
+      <c r="E79" t="s">
+        <v>139</v>
       </c>
       <c r="F79" t="s">
-        <v>348</v>
-      </c>
-      <c r="G79" t="s">
-        <v>342</v>
-      </c>
-      <c r="H79">
+        <v>139</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="H79" t="s">
+        <v>346</v>
+      </c>
+      <c r="I79" t="s">
+        <v>340</v>
+      </c>
+      <c r="J79">
         <v>1988</v>
       </c>
-      <c r="K79" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>157</v>
       </c>
@@ -4442,23 +4928,29 @@
       <c r="D80" t="s">
         <v>139</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>522</v>
+      <c r="E80" t="s">
+        <v>139</v>
       </c>
       <c r="F80" t="s">
-        <v>348</v>
-      </c>
-      <c r="G80" t="s">
-        <v>342</v>
-      </c>
-      <c r="H80">
+        <v>139</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H80" t="s">
+        <v>346</v>
+      </c>
+      <c r="I80" t="s">
+        <v>340</v>
+      </c>
+      <c r="J80">
         <v>1984</v>
       </c>
-      <c r="K80" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="M80" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>156</v>
       </c>
@@ -4471,23 +4963,29 @@
       <c r="D81" t="s">
         <v>139</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>523</v>
+      <c r="E81" t="s">
+        <v>139</v>
       </c>
       <c r="F81" t="s">
-        <v>348</v>
-      </c>
-      <c r="G81" t="s">
-        <v>342</v>
-      </c>
-      <c r="H81">
+        <v>139</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="H81" t="s">
+        <v>346</v>
+      </c>
+      <c r="I81" t="s">
+        <v>340</v>
+      </c>
+      <c r="J81">
         <v>1979</v>
       </c>
-      <c r="K81" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="M81" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>158</v>
       </c>
@@ -4500,23 +4998,29 @@
       <c r="D82" t="s">
         <v>139</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>524</v>
+      <c r="E82" t="s">
+        <v>139</v>
       </c>
       <c r="F82" t="s">
-        <v>348</v>
-      </c>
-      <c r="G82" t="s">
-        <v>342</v>
-      </c>
-      <c r="H82">
+        <v>139</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="H82" t="s">
+        <v>346</v>
+      </c>
+      <c r="I82" t="s">
+        <v>340</v>
+      </c>
+      <c r="J82">
         <v>1974</v>
       </c>
-      <c r="K82" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="M82" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>155</v>
       </c>
@@ -4529,23 +5033,29 @@
       <c r="D83" t="s">
         <v>139</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>400</v>
+      <c r="E83" t="s">
+        <v>139</v>
       </c>
       <c r="F83" t="s">
-        <v>479</v>
-      </c>
-      <c r="G83" t="s">
-        <v>399</v>
-      </c>
-      <c r="H83">
+        <v>139</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="H83" t="s">
+        <v>477</v>
+      </c>
+      <c r="I83" t="s">
+        <v>397</v>
+      </c>
+      <c r="J83">
         <v>2003</v>
       </c>
-      <c r="K83" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="M83" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>150</v>
       </c>
@@ -4558,23 +5068,29 @@
       <c r="D84" t="s">
         <v>139</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>407</v>
+      <c r="E84" t="s">
+        <v>139</v>
       </c>
       <c r="F84" t="s">
-        <v>348</v>
-      </c>
-      <c r="G84" t="s">
-        <v>342</v>
-      </c>
-      <c r="H84">
+        <v>139</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="H84" t="s">
+        <v>346</v>
+      </c>
+      <c r="I84" t="s">
+        <v>340</v>
+      </c>
+      <c r="J84">
         <v>1996</v>
       </c>
-      <c r="K84" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="M84" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
         <v>153</v>
       </c>
@@ -4587,23 +5103,29 @@
       <c r="D85" t="s">
         <v>139</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>416</v>
+      <c r="E85" t="s">
+        <v>139</v>
       </c>
       <c r="F85" t="s">
-        <v>481</v>
-      </c>
-      <c r="G85" t="s">
-        <v>415</v>
-      </c>
-      <c r="H85">
+        <v>139</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H85" t="s">
+        <v>479</v>
+      </c>
+      <c r="I85" t="s">
+        <v>413</v>
+      </c>
+      <c r="J85">
         <v>2007</v>
       </c>
-      <c r="K85" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="M85" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
         <v>191</v>
       </c>
@@ -4616,23 +5138,29 @@
       <c r="D86" t="s">
         <v>139</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" t="s">
+        <v>139</v>
+      </c>
+      <c r="F86" t="s">
+        <v>139</v>
+      </c>
+      <c r="G86" s="3">
         <v>16681</v>
       </c>
-      <c r="F86" t="s">
-        <v>348</v>
-      </c>
-      <c r="G86" t="s">
-        <v>320</v>
-      </c>
-      <c r="H86">
+      <c r="H86" t="s">
+        <v>346</v>
+      </c>
+      <c r="I86" t="s">
+        <v>318</v>
+      </c>
+      <c r="J86">
         <v>1964</v>
       </c>
-      <c r="K86" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="M86" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
         <v>189</v>
       </c>
@@ -4645,23 +5173,29 @@
       <c r="D87" t="s">
         <v>185</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>358</v>
+      <c r="E87" t="s">
+        <v>185</v>
       </c>
       <c r="F87" t="s">
-        <v>357</v>
-      </c>
-      <c r="G87" t="s">
-        <v>320</v>
-      </c>
-      <c r="H87">
+        <v>185</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="H87" t="s">
+        <v>355</v>
+      </c>
+      <c r="I87" t="s">
+        <v>318</v>
+      </c>
+      <c r="J87">
         <v>1970</v>
       </c>
-      <c r="K87" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="M87" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
         <v>186</v>
       </c>
@@ -4674,23 +5208,29 @@
       <c r="D88" t="s">
         <v>185</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>360</v>
+      <c r="E88" t="s">
+        <v>185</v>
       </c>
       <c r="F88" t="s">
-        <v>359</v>
-      </c>
-      <c r="G88" t="s">
-        <v>320</v>
-      </c>
-      <c r="H88">
+        <v>185</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="H88" t="s">
+        <v>357</v>
+      </c>
+      <c r="I88" t="s">
+        <v>318</v>
+      </c>
+      <c r="J88">
         <v>1980</v>
       </c>
-      <c r="K88" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="M88" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
         <v>188</v>
       </c>
@@ -4703,23 +5243,29 @@
       <c r="D89" t="s">
         <v>185</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>362</v>
+      <c r="E89" t="s">
+        <v>185</v>
       </c>
       <c r="F89" t="s">
-        <v>361</v>
-      </c>
-      <c r="G89" t="s">
-        <v>320</v>
-      </c>
-      <c r="H89">
+        <v>185</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H89" t="s">
+        <v>359</v>
+      </c>
+      <c r="I89" t="s">
+        <v>318</v>
+      </c>
+      <c r="J89">
         <v>1966</v>
       </c>
-      <c r="K89" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="M89" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
         <v>187</v>
       </c>
@@ -4732,23 +5278,29 @@
       <c r="D90" t="s">
         <v>185</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>364</v>
+      <c r="E90" t="s">
+        <v>185</v>
       </c>
       <c r="F90" t="s">
-        <v>363</v>
-      </c>
-      <c r="G90" t="s">
-        <v>320</v>
-      </c>
-      <c r="H90">
+        <v>185</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="H90" t="s">
+        <v>361</v>
+      </c>
+      <c r="I90" t="s">
+        <v>318</v>
+      </c>
+      <c r="J90">
         <v>1999</v>
       </c>
-      <c r="K90" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="M90" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
         <v>190</v>
       </c>
@@ -4761,23 +5313,29 @@
       <c r="D91" t="s">
         <v>185</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>386</v>
+      <c r="E91" t="s">
+        <v>185</v>
       </c>
       <c r="F91" t="s">
-        <v>357</v>
-      </c>
-      <c r="G91" t="s">
-        <v>320</v>
-      </c>
-      <c r="H91">
+        <v>185</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H91" t="s">
+        <v>355</v>
+      </c>
+      <c r="I91" t="s">
+        <v>318</v>
+      </c>
+      <c r="J91">
         <v>2008</v>
       </c>
-      <c r="K91" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="M91" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
         <v>265</v>
       </c>
@@ -4790,23 +5348,29 @@
       <c r="D92" t="s">
         <v>254</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>515</v>
+      <c r="E92" t="s">
+        <v>254</v>
       </c>
       <c r="F92" t="s">
-        <v>476</v>
-      </c>
-      <c r="G92" t="s">
-        <v>347</v>
-      </c>
-      <c r="H92">
+        <v>254</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="H92" t="s">
+        <v>474</v>
+      </c>
+      <c r="I92" t="s">
+        <v>345</v>
+      </c>
+      <c r="J92">
         <v>2004</v>
       </c>
-      <c r="K92" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="M92" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
         <v>264</v>
       </c>
@@ -4819,23 +5383,29 @@
       <c r="D93" t="s">
         <v>254</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>516</v>
+      <c r="E93" t="s">
+        <v>254</v>
       </c>
       <c r="F93" t="s">
-        <v>476</v>
-      </c>
-      <c r="G93" t="s">
-        <v>347</v>
-      </c>
-      <c r="H93">
+        <v>254</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="H93" t="s">
+        <v>474</v>
+      </c>
+      <c r="I93" t="s">
+        <v>345</v>
+      </c>
+      <c r="J93">
         <v>1998</v>
       </c>
-      <c r="K93" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="M93" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
         <v>256</v>
       </c>
@@ -4848,29 +5418,35 @@
       <c r="D94" t="s">
         <v>254</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>448</v>
+      <c r="E94" t="s">
+        <v>254</v>
       </c>
       <c r="F94" t="s">
-        <v>476</v>
-      </c>
-      <c r="G94" t="s">
-        <v>441</v>
-      </c>
-      <c r="H94">
+        <v>254</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H94" t="s">
+        <v>474</v>
+      </c>
+      <c r="I94" t="s">
+        <v>439</v>
+      </c>
+      <c r="J94">
         <v>2007</v>
       </c>
-      <c r="I94" t="s">
-        <v>449</v>
-      </c>
-      <c r="J94">
+      <c r="K94" t="s">
+        <v>447</v>
+      </c>
+      <c r="L94">
         <v>22</v>
       </c>
-      <c r="K94" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="M94" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
         <v>255</v>
       </c>
@@ -4883,29 +5459,35 @@
       <c r="D95" t="s">
         <v>254</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>450</v>
+      <c r="E95" t="s">
+        <v>254</v>
       </c>
       <c r="F95" t="s">
-        <v>476</v>
-      </c>
-      <c r="G95" t="s">
-        <v>441</v>
-      </c>
-      <c r="H95">
+        <v>254</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="H95" t="s">
+        <v>474</v>
+      </c>
+      <c r="I95" t="s">
+        <v>439</v>
+      </c>
+      <c r="J95">
         <v>2007</v>
       </c>
-      <c r="I95" t="s">
-        <v>445</v>
-      </c>
-      <c r="J95">
+      <c r="K95" t="s">
+        <v>443</v>
+      </c>
+      <c r="L95">
         <v>26</v>
       </c>
-      <c r="K95" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="M95" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>263</v>
       </c>
@@ -4918,29 +5500,35 @@
       <c r="D96" t="s">
         <v>254</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>451</v>
+      <c r="E96" t="s">
+        <v>254</v>
       </c>
       <c r="F96" t="s">
-        <v>476</v>
-      </c>
-      <c r="G96" t="s">
-        <v>441</v>
-      </c>
-      <c r="H96">
+        <v>254</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="H96" t="s">
+        <v>474</v>
+      </c>
+      <c r="I96" t="s">
+        <v>439</v>
+      </c>
+      <c r="J96">
         <v>2007</v>
       </c>
-      <c r="I96" t="s">
-        <v>445</v>
-      </c>
-      <c r="J96">
+      <c r="K96" t="s">
+        <v>443</v>
+      </c>
+      <c r="L96">
         <v>10</v>
       </c>
-      <c r="K96" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="M96" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>258</v>
       </c>
@@ -4953,29 +5541,35 @@
       <c r="D97" t="s">
         <v>254</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>452</v>
+      <c r="E97" t="s">
+        <v>254</v>
       </c>
       <c r="F97" t="s">
-        <v>476</v>
-      </c>
-      <c r="G97" t="s">
-        <v>441</v>
-      </c>
-      <c r="H97">
+        <v>254</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="H97" t="s">
+        <v>474</v>
+      </c>
+      <c r="I97" t="s">
+        <v>439</v>
+      </c>
+      <c r="J97">
         <v>2008</v>
       </c>
-      <c r="I97" t="s">
-        <v>453</v>
-      </c>
-      <c r="J97">
+      <c r="K97" t="s">
+        <v>451</v>
+      </c>
+      <c r="L97">
         <v>15</v>
       </c>
-      <c r="K97" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="M97" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>259</v>
       </c>
@@ -4988,29 +5582,35 @@
       <c r="D98" t="s">
         <v>254</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>454</v>
+      <c r="E98" t="s">
+        <v>254</v>
       </c>
       <c r="F98" t="s">
-        <v>476</v>
-      </c>
-      <c r="G98" t="s">
-        <v>441</v>
-      </c>
-      <c r="H98">
+        <v>254</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H98" t="s">
+        <v>474</v>
+      </c>
+      <c r="I98" t="s">
+        <v>439</v>
+      </c>
+      <c r="J98">
         <v>2007</v>
       </c>
-      <c r="I98" t="s">
-        <v>445</v>
-      </c>
-      <c r="J98">
+      <c r="K98" t="s">
+        <v>443</v>
+      </c>
+      <c r="L98">
         <v>2</v>
       </c>
-      <c r="K98" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="M98" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
         <v>262</v>
       </c>
@@ -5023,29 +5623,35 @@
       <c r="D99" t="s">
         <v>254</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>455</v>
+      <c r="E99" t="s">
+        <v>254</v>
       </c>
       <c r="F99" t="s">
-        <v>476</v>
-      </c>
-      <c r="G99" t="s">
-        <v>441</v>
-      </c>
-      <c r="H99">
+        <v>254</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="H99" t="s">
+        <v>474</v>
+      </c>
+      <c r="I99" t="s">
+        <v>439</v>
+      </c>
+      <c r="J99">
         <v>2008</v>
       </c>
-      <c r="I99" t="s">
-        <v>453</v>
-      </c>
-      <c r="J99">
+      <c r="K99" t="s">
+        <v>451</v>
+      </c>
+      <c r="L99">
         <v>15</v>
       </c>
-      <c r="K99" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="M99" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>260</v>
       </c>
@@ -5058,29 +5664,35 @@
       <c r="D100" t="s">
         <v>254</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>456</v>
+      <c r="E100" t="s">
+        <v>254</v>
       </c>
       <c r="F100" t="s">
-        <v>476</v>
-      </c>
-      <c r="G100" t="s">
-        <v>441</v>
-      </c>
-      <c r="H100">
+        <v>254</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="H100" t="s">
+        <v>474</v>
+      </c>
+      <c r="I100" t="s">
+        <v>439</v>
+      </c>
+      <c r="J100">
         <v>2008</v>
       </c>
-      <c r="I100" t="s">
-        <v>447</v>
-      </c>
-      <c r="J100">
+      <c r="K100" t="s">
+        <v>445</v>
+      </c>
+      <c r="L100">
         <v>30</v>
       </c>
-      <c r="K100" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="M100" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
         <v>261</v>
       </c>
@@ -5093,29 +5705,35 @@
       <c r="D101" t="s">
         <v>254</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>457</v>
+      <c r="E101" t="s">
+        <v>254</v>
       </c>
       <c r="F101" t="s">
-        <v>476</v>
-      </c>
-      <c r="G101" t="s">
-        <v>441</v>
-      </c>
-      <c r="H101">
+        <v>254</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H101" t="s">
+        <v>474</v>
+      </c>
+      <c r="I101" t="s">
+        <v>439</v>
+      </c>
+      <c r="J101">
         <v>2008</v>
       </c>
-      <c r="I101" t="s">
-        <v>453</v>
-      </c>
-      <c r="J101">
+      <c r="K101" t="s">
+        <v>451</v>
+      </c>
+      <c r="L101">
         <v>15</v>
       </c>
-      <c r="K101" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="M101" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
         <v>257</v>
       </c>
@@ -5128,29 +5746,35 @@
       <c r="D102" t="s">
         <v>254</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>458</v>
+      <c r="E102" t="s">
+        <v>254</v>
       </c>
       <c r="F102" t="s">
-        <v>476</v>
-      </c>
-      <c r="G102" t="s">
-        <v>441</v>
-      </c>
-      <c r="H102">
+        <v>254</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="H102" t="s">
+        <v>474</v>
+      </c>
+      <c r="I102" t="s">
+        <v>439</v>
+      </c>
+      <c r="J102">
         <v>2008</v>
       </c>
-      <c r="I102" t="s">
-        <v>459</v>
-      </c>
-      <c r="J102">
+      <c r="K102" t="s">
+        <v>457</v>
+      </c>
+      <c r="L102">
         <v>26</v>
       </c>
-      <c r="K102" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="M102" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
         <v>266</v>
       </c>
@@ -5163,29 +5787,35 @@
       <c r="D103" t="s">
         <v>254</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>460</v>
+      <c r="E103" t="s">
+        <v>254</v>
       </c>
       <c r="F103" t="s">
-        <v>476</v>
-      </c>
-      <c r="G103" t="s">
-        <v>441</v>
-      </c>
-      <c r="H103">
+        <v>254</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="H103" t="s">
+        <v>474</v>
+      </c>
+      <c r="I103" t="s">
+        <v>439</v>
+      </c>
+      <c r="J103">
         <v>2008</v>
       </c>
-      <c r="I103" t="s">
-        <v>447</v>
-      </c>
-      <c r="J103">
+      <c r="K103" t="s">
+        <v>445</v>
+      </c>
+      <c r="L103">
         <v>10</v>
       </c>
-      <c r="K103" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="M103" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
         <v>244</v>
       </c>
@@ -5198,23 +5828,29 @@
       <c r="D104" t="s">
         <v>240</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>338</v>
+      <c r="E104" t="s">
+        <v>240</v>
       </c>
       <c r="F104" t="s">
-        <v>337</v>
-      </c>
-      <c r="G104" t="s">
-        <v>320</v>
-      </c>
-      <c r="H104">
+        <v>240</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H104" t="s">
+        <v>335</v>
+      </c>
+      <c r="I104" t="s">
+        <v>318</v>
+      </c>
+      <c r="J104">
         <v>2002</v>
       </c>
-      <c r="K104" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="M104" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
         <v>242</v>
       </c>
@@ -5227,23 +5863,29 @@
       <c r="D105" t="s">
         <v>240</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>339</v>
+      <c r="E105" t="s">
+        <v>240</v>
       </c>
       <c r="F105" t="s">
+        <v>240</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="G105" t="s">
-        <v>320</v>
-      </c>
-      <c r="H105">
+      <c r="H105" t="s">
+        <v>335</v>
+      </c>
+      <c r="I105" t="s">
+        <v>318</v>
+      </c>
+      <c r="J105">
         <v>2002</v>
       </c>
-      <c r="K105" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="M105" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
         <v>241</v>
       </c>
@@ -5256,23 +5898,29 @@
       <c r="D106" t="s">
         <v>240</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>340</v>
+      <c r="E106" t="s">
+        <v>240</v>
       </c>
       <c r="F106" t="s">
-        <v>337</v>
-      </c>
-      <c r="G106" t="s">
-        <v>320</v>
-      </c>
-      <c r="H106">
+        <v>240</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H106" t="s">
+        <v>335</v>
+      </c>
+      <c r="I106" t="s">
+        <v>318</v>
+      </c>
+      <c r="J106">
         <v>2002</v>
       </c>
-      <c r="K106" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="M106" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
         <v>243</v>
       </c>
@@ -5285,23 +5933,29 @@
       <c r="D107" t="s">
         <v>240</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>341</v>
+      <c r="E107" t="s">
+        <v>240</v>
       </c>
       <c r="F107" t="s">
-        <v>337</v>
-      </c>
-      <c r="G107" t="s">
-        <v>320</v>
-      </c>
-      <c r="H107">
+        <v>240</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H107" t="s">
+        <v>335</v>
+      </c>
+      <c r="I107" t="s">
+        <v>318</v>
+      </c>
+      <c r="J107">
         <v>2002</v>
       </c>
-      <c r="K107" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="M107" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
         <v>250</v>
       </c>
@@ -5314,20 +5968,26 @@
       <c r="D108" t="s">
         <v>240</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>513</v>
+      <c r="E108" t="s">
+        <v>240</v>
       </c>
       <c r="F108" t="s">
-        <v>369</v>
-      </c>
-      <c r="G108" t="s">
-        <v>320</v>
-      </c>
-      <c r="K108" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>240</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="H108" t="s">
+        <v>367</v>
+      </c>
+      <c r="I108" t="s">
+        <v>318</v>
+      </c>
+      <c r="M108" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
         <v>249</v>
       </c>
@@ -5340,23 +6000,29 @@
       <c r="D109" t="s">
         <v>240</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>517</v>
+      <c r="E109" t="s">
+        <v>240</v>
       </c>
       <c r="F109" t="s">
-        <v>348</v>
-      </c>
-      <c r="G109" t="s">
-        <v>320</v>
-      </c>
-      <c r="H109">
+        <v>240</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="H109" t="s">
+        <v>346</v>
+      </c>
+      <c r="I109" t="s">
+        <v>318</v>
+      </c>
+      <c r="J109">
         <v>1994</v>
       </c>
-      <c r="K109" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="M109" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
         <v>248</v>
       </c>
@@ -5369,23 +6035,29 @@
       <c r="D110" t="s">
         <v>240</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>518</v>
+      <c r="E110" t="s">
+        <v>240</v>
       </c>
       <c r="F110" t="s">
-        <v>348</v>
-      </c>
-      <c r="G110" t="s">
-        <v>320</v>
-      </c>
-      <c r="H110">
+        <v>240</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="H110" t="s">
+        <v>346</v>
+      </c>
+      <c r="I110" t="s">
+        <v>318</v>
+      </c>
+      <c r="J110">
         <v>1994</v>
       </c>
-      <c r="K110" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="M110" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
         <v>245</v>
       </c>
@@ -5398,23 +6070,29 @@
       <c r="D111" t="s">
         <v>240</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>354</v>
+      <c r="E111" t="s">
+        <v>240</v>
       </c>
       <c r="F111" t="s">
-        <v>327</v>
-      </c>
-      <c r="G111" t="s">
-        <v>320</v>
-      </c>
-      <c r="H111">
+        <v>240</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H111" t="s">
+        <v>325</v>
+      </c>
+      <c r="I111" t="s">
+        <v>318</v>
+      </c>
+      <c r="J111">
         <v>1998</v>
       </c>
-      <c r="K111" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="M111" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
         <v>247</v>
       </c>
@@ -5427,23 +6105,29 @@
       <c r="D112" t="s">
         <v>240</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>355</v>
+      <c r="E112" t="s">
+        <v>240</v>
       </c>
       <c r="F112" t="s">
-        <v>327</v>
-      </c>
-      <c r="G112" t="s">
-        <v>320</v>
-      </c>
-      <c r="H112">
+        <v>240</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="H112" t="s">
+        <v>325</v>
+      </c>
+      <c r="I112" t="s">
+        <v>318</v>
+      </c>
+      <c r="J112">
         <v>1998</v>
       </c>
-      <c r="K112" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="M112" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
         <v>246</v>
       </c>
@@ -5456,23 +6140,29 @@
       <c r="D113" t="s">
         <v>240</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>356</v>
+      <c r="E113" t="s">
+        <v>240</v>
       </c>
       <c r="F113" t="s">
-        <v>327</v>
-      </c>
-      <c r="G113" t="s">
-        <v>320</v>
-      </c>
-      <c r="H113">
+        <v>240</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H113" t="s">
+        <v>325</v>
+      </c>
+      <c r="I113" t="s">
+        <v>318</v>
+      </c>
+      <c r="J113">
         <v>1998</v>
       </c>
-      <c r="K113" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="M113" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
         <v>239</v>
       </c>
@@ -5485,23 +6175,29 @@
       <c r="D114" t="s">
         <v>228</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>332</v>
+      <c r="E114" t="s">
+        <v>228</v>
       </c>
       <c r="F114" t="s">
-        <v>331</v>
-      </c>
-      <c r="G114" t="s">
-        <v>320</v>
-      </c>
-      <c r="H114">
+        <v>228</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H114" t="s">
+        <v>329</v>
+      </c>
+      <c r="I114" t="s">
+        <v>318</v>
+      </c>
+      <c r="J114">
         <v>2000</v>
       </c>
-      <c r="K114" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="M114" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
         <v>234</v>
       </c>
@@ -5514,23 +6210,29 @@
       <c r="D115" t="s">
         <v>228</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>334</v>
+      <c r="E115" t="s">
+        <v>228</v>
       </c>
       <c r="F115" t="s">
-        <v>333</v>
-      </c>
-      <c r="G115" t="s">
-        <v>320</v>
-      </c>
-      <c r="H115">
+        <v>228</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H115" t="s">
+        <v>331</v>
+      </c>
+      <c r="I115" t="s">
+        <v>318</v>
+      </c>
+      <c r="J115">
         <v>2000</v>
       </c>
-      <c r="K115" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="M115" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
         <v>233</v>
       </c>
@@ -5543,23 +6245,29 @@
       <c r="D116" t="s">
         <v>228</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>502</v>
+      <c r="E116" t="s">
+        <v>228</v>
       </c>
       <c r="F116" t="s">
-        <v>343</v>
-      </c>
-      <c r="G116" t="s">
-        <v>320</v>
-      </c>
-      <c r="H116">
+        <v>228</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="H116" t="s">
+        <v>341</v>
+      </c>
+      <c r="I116" t="s">
+        <v>318</v>
+      </c>
+      <c r="J116">
         <v>2002</v>
       </c>
-      <c r="K116" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="M116" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
         <v>238</v>
       </c>
@@ -5572,29 +6280,35 @@
       <c r="D117" t="s">
         <v>228</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>514</v>
+      <c r="E117" t="s">
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>394</v>
-      </c>
-      <c r="G117" t="s">
-        <v>346</v>
-      </c>
-      <c r="H117">
+        <v>228</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="H117" t="s">
+        <v>392</v>
+      </c>
+      <c r="I117" t="s">
+        <v>344</v>
+      </c>
+      <c r="J117">
         <v>2003</v>
       </c>
-      <c r="I117">
+      <c r="K117">
         <v>11</v>
       </c>
-      <c r="J117">
+      <c r="L117">
         <v>3</v>
       </c>
-      <c r="K117" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="M117" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
         <v>232</v>
       </c>
@@ -5607,23 +6321,29 @@
       <c r="D118" t="s">
         <v>228</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>375</v>
+      <c r="E118" t="s">
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>477</v>
-      </c>
-      <c r="G118" t="s">
-        <v>368</v>
-      </c>
-      <c r="H118">
+        <v>228</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H118" t="s">
+        <v>475</v>
+      </c>
+      <c r="I118" t="s">
+        <v>366</v>
+      </c>
+      <c r="J118">
         <v>2003</v>
       </c>
-      <c r="K118" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="M118" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
         <v>231</v>
       </c>
@@ -5636,23 +6356,29 @@
       <c r="D119" t="s">
         <v>228</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>388</v>
+      <c r="E119" t="s">
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>477</v>
-      </c>
-      <c r="G119" t="s">
-        <v>368</v>
-      </c>
-      <c r="H119">
+        <v>228</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="H119" t="s">
+        <v>475</v>
+      </c>
+      <c r="I119" t="s">
+        <v>366</v>
+      </c>
+      <c r="J119">
         <v>2000</v>
       </c>
-      <c r="K119" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="M119" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
         <v>230</v>
       </c>
@@ -5665,23 +6391,29 @@
       <c r="D120" t="s">
         <v>228</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>390</v>
+      <c r="E120" t="s">
+        <v>228</v>
       </c>
       <c r="F120" t="s">
-        <v>427</v>
-      </c>
-      <c r="G120" t="s">
-        <v>389</v>
-      </c>
-      <c r="H120">
+        <v>228</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H120" t="s">
+        <v>425</v>
+      </c>
+      <c r="I120" t="s">
+        <v>387</v>
+      </c>
+      <c r="J120">
         <v>2000</v>
       </c>
-      <c r="K120" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="M120" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
         <v>236</v>
       </c>
@@ -5694,23 +6426,29 @@
       <c r="D121" t="s">
         <v>228</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>393</v>
+      <c r="E121" t="s">
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>478</v>
-      </c>
-      <c r="G121" t="s">
-        <v>392</v>
-      </c>
-      <c r="H121">
+        <v>228</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="H121" t="s">
+        <v>476</v>
+      </c>
+      <c r="I121" t="s">
+        <v>390</v>
+      </c>
+      <c r="J121">
         <v>2007</v>
       </c>
-      <c r="K121" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="M121" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
         <v>235</v>
       </c>
@@ -5723,23 +6461,29 @@
       <c r="D122" t="s">
         <v>228</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>396</v>
+      <c r="E122" t="s">
+        <v>228</v>
       </c>
       <c r="F122" t="s">
-        <v>366</v>
-      </c>
-      <c r="G122" t="s">
+        <v>228</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H122" t="s">
+        <v>364</v>
+      </c>
+      <c r="I122" t="s">
+        <v>318</v>
+      </c>
+      <c r="J122">
+        <v>2002</v>
+      </c>
+      <c r="M122" t="s">
         <v>320</v>
       </c>
-      <c r="H122">
-        <v>2002</v>
-      </c>
-      <c r="K122" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
         <v>229</v>
       </c>
@@ -5752,23 +6496,29 @@
       <c r="D123" t="s">
         <v>228</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>408</v>
+      <c r="E123" t="s">
+        <v>228</v>
       </c>
       <c r="F123" t="s">
-        <v>417</v>
-      </c>
-      <c r="G123" t="s">
-        <v>378</v>
-      </c>
-      <c r="H123">
+        <v>228</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="H123" t="s">
+        <v>415</v>
+      </c>
+      <c r="I123" t="s">
+        <v>376</v>
+      </c>
+      <c r="J123">
         <v>2007</v>
       </c>
-      <c r="K123" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="M123" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
         <v>237</v>
       </c>
@@ -5781,23 +6531,29 @@
       <c r="D124" t="s">
         <v>228</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>437</v>
+      <c r="E124" t="s">
+        <v>228</v>
       </c>
       <c r="F124" t="s">
-        <v>331</v>
-      </c>
-      <c r="G124" t="s">
+        <v>228</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="H124" t="s">
+        <v>329</v>
+      </c>
+      <c r="I124" t="s">
+        <v>318</v>
+      </c>
+      <c r="J124">
+        <v>1989</v>
+      </c>
+      <c r="M124" t="s">
         <v>320</v>
       </c>
-      <c r="H124">
-        <v>1989</v>
-      </c>
-      <c r="K124" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
         <v>267</v>
       </c>
@@ -5810,20 +6566,26 @@
       <c r="D125" t="s">
         <v>228</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>332</v>
+      <c r="E125" t="s">
+        <v>228</v>
       </c>
       <c r="F125" t="s">
-        <v>331</v>
-      </c>
-      <c r="G125" t="s">
-        <v>320</v>
-      </c>
-      <c r="K125" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>228</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H125" t="s">
+        <v>329</v>
+      </c>
+      <c r="I125" t="s">
+        <v>318</v>
+      </c>
+      <c r="M125" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
         <v>253</v>
       </c>
@@ -5836,20 +6598,26 @@
       <c r="D126" t="s">
         <v>251</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>494</v>
+      <c r="E126" t="s">
+        <v>251</v>
       </c>
       <c r="F126" t="s">
-        <v>471</v>
-      </c>
-      <c r="G126" t="s">
-        <v>330</v>
-      </c>
-      <c r="K126" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>251</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H126" t="s">
+        <v>469</v>
+      </c>
+      <c r="I126" t="s">
+        <v>328</v>
+      </c>
+      <c r="M126" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -5862,25 +6630,31 @@
       <c r="D127" t="s">
         <v>251</v>
       </c>
-      <c r="E127" s="3" t="s">
-        <v>528</v>
+      <c r="E127" t="s">
+        <v>251</v>
       </c>
       <c r="F127" t="s">
-        <v>343</v>
-      </c>
-      <c r="G127" t="s">
-        <v>320</v>
-      </c>
-      <c r="H127">
+        <v>251</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="H127" t="s">
+        <v>341</v>
+      </c>
+      <c r="I127" t="s">
+        <v>318</v>
+      </c>
+      <c r="J127">
         <v>2002</v>
       </c>
-      <c r="K127" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="M127" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B128" t="s">
         <v>280</v>
@@ -5889,27 +6663,33 @@
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>298</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>500</v>
+        <v>297</v>
+      </c>
+      <c r="E128" t="s">
+        <v>297</v>
       </c>
       <c r="F128" t="s">
-        <v>348</v>
-      </c>
-      <c r="G128" t="s">
-        <v>342</v>
-      </c>
-      <c r="H128">
+        <v>297</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="H128" t="s">
+        <v>346</v>
+      </c>
+      <c r="I128" t="s">
+        <v>340</v>
+      </c>
+      <c r="J128">
         <v>1977</v>
       </c>
-      <c r="K128" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+      <c r="M128" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B129" t="s">
         <v>279</v>
@@ -5918,27 +6698,33 @@
         <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>298</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>501</v>
+        <v>552</v>
+      </c>
+      <c r="E129" t="s">
+        <v>552</v>
       </c>
       <c r="F129" t="s">
-        <v>348</v>
-      </c>
-      <c r="G129" t="s">
-        <v>342</v>
-      </c>
-      <c r="H129">
+        <v>552</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="H129" t="s">
+        <v>346</v>
+      </c>
+      <c r="I129" t="s">
+        <v>340</v>
+      </c>
+      <c r="J129">
         <v>2001</v>
       </c>
-      <c r="K129" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
+      <c r="M129" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B130" t="s">
         <v>283</v>
@@ -5947,27 +6733,33 @@
         <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>298</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>384</v>
+        <v>297</v>
+      </c>
+      <c r="E130" t="s">
+        <v>297</v>
       </c>
       <c r="F130" t="s">
-        <v>471</v>
-      </c>
-      <c r="G130" t="s">
-        <v>381</v>
-      </c>
-      <c r="H130">
+        <v>297</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="H130" t="s">
+        <v>469</v>
+      </c>
+      <c r="I130" t="s">
+        <v>379</v>
+      </c>
+      <c r="J130">
         <v>1990</v>
       </c>
-      <c r="K130" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
+      <c r="M130" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B131" t="s">
         <v>282</v>
@@ -5976,27 +6768,33 @@
         <v>4</v>
       </c>
       <c r="D131" t="s">
+        <v>297</v>
+      </c>
+      <c r="E131" t="s">
+        <v>297</v>
+      </c>
+      <c r="F131" t="s">
+        <v>297</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H131" t="s">
+        <v>407</v>
+      </c>
+      <c r="I131" t="s">
+        <v>318</v>
+      </c>
+      <c r="J131">
+        <v>1956</v>
+      </c>
+      <c r="M131" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" t="s">
         <v>298</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="F131" t="s">
-        <v>409</v>
-      </c>
-      <c r="G131" t="s">
-        <v>320</v>
-      </c>
-      <c r="H131">
-        <v>1956</v>
-      </c>
-      <c r="K131" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
-      <c r="A132" t="s">
-        <v>299</v>
       </c>
       <c r="B132" t="s">
         <v>278</v>
@@ -6005,33 +6803,39 @@
         <v>4</v>
       </c>
       <c r="D132" t="s">
-        <v>298</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>439</v>
+        <v>297</v>
+      </c>
+      <c r="E132" t="s">
+        <v>297</v>
       </c>
       <c r="F132" t="s">
-        <v>343</v>
-      </c>
-      <c r="G132" t="s">
+        <v>297</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="H132" t="s">
+        <v>341</v>
+      </c>
+      <c r="I132" t="s">
+        <v>436</v>
+      </c>
+      <c r="J132">
+        <v>2011</v>
+      </c>
+      <c r="K132" t="s">
         <v>438</v>
       </c>
-      <c r="H132">
-        <v>2011</v>
-      </c>
-      <c r="I132" t="s">
-        <v>440</v>
-      </c>
-      <c r="J132">
+      <c r="L132">
         <v>18</v>
       </c>
-      <c r="K132" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
+      <c r="M132" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B133" t="s">
         <v>281</v>
@@ -6040,27 +6844,33 @@
         <v>4</v>
       </c>
       <c r="D133" t="s">
-        <v>298</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>464</v>
+        <v>297</v>
+      </c>
+      <c r="E133" t="s">
+        <v>551</v>
       </c>
       <c r="F133" t="s">
-        <v>483</v>
-      </c>
-      <c r="G133" t="s">
-        <v>463</v>
-      </c>
-      <c r="H133">
+        <v>553</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H133" t="s">
+        <v>481</v>
+      </c>
+      <c r="I133" t="s">
+        <v>461</v>
+      </c>
+      <c r="J133">
         <v>2009</v>
       </c>
-      <c r="K133" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="M133" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B134" t="s">
         <v>275</v>
@@ -6069,30 +6879,36 @@
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>288</v>
-      </c>
-      <c r="E134" s="3">
+        <v>297</v>
+      </c>
+      <c r="E134" t="s">
+        <v>551</v>
+      </c>
+      <c r="F134" t="s">
+        <v>551</v>
+      </c>
+      <c r="G134" s="3">
         <v>814669</v>
       </c>
-      <c r="F134" t="s">
-        <v>321</v>
-      </c>
-      <c r="G134" t="s">
-        <v>320</v>
-      </c>
-      <c r="H134">
+      <c r="H134" t="s">
+        <v>319</v>
+      </c>
+      <c r="I134" t="s">
+        <v>318</v>
+      </c>
+      <c r="J134">
         <v>1981</v>
       </c>
-      <c r="K134" t="s">
-        <v>320</v>
-      </c>
-      <c r="L134" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="M134" t="s">
+        <v>318</v>
+      </c>
+      <c r="N134" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B135" t="s">
         <v>277</v>
@@ -6101,24 +6917,30 @@
         <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>288</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>512</v>
+        <v>297</v>
+      </c>
+      <c r="E135" t="s">
+        <v>551</v>
       </c>
       <c r="F135" t="s">
-        <v>369</v>
-      </c>
-      <c r="G135" t="s">
-        <v>320</v>
-      </c>
-      <c r="K135" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
+        <v>551</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="H135" t="s">
+        <v>367</v>
+      </c>
+      <c r="I135" t="s">
+        <v>318</v>
+      </c>
+      <c r="M135" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B136" t="s">
         <v>273</v>
@@ -6127,27 +6949,33 @@
         <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>288</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>379</v>
+        <v>297</v>
+      </c>
+      <c r="E136" t="s">
+        <v>551</v>
       </c>
       <c r="F136" t="s">
-        <v>417</v>
-      </c>
-      <c r="G136" t="s">
-        <v>378</v>
-      </c>
-      <c r="H136">
+        <v>551</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="H136" t="s">
+        <v>415</v>
+      </c>
+      <c r="I136" t="s">
+        <v>376</v>
+      </c>
+      <c r="J136">
         <v>1997</v>
       </c>
-      <c r="K136" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="M136" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B137" t="s">
         <v>270</v>
@@ -6156,27 +6984,33 @@
         <v>4</v>
       </c>
       <c r="D137" t="s">
-        <v>288</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>391</v>
+        <v>297</v>
+      </c>
+      <c r="E137" t="s">
+        <v>551</v>
       </c>
       <c r="F137" t="s">
-        <v>427</v>
-      </c>
-      <c r="G137" t="s">
+        <v>551</v>
+      </c>
+      <c r="G137" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="H137">
+      <c r="H137" t="s">
+        <v>425</v>
+      </c>
+      <c r="I137" t="s">
+        <v>387</v>
+      </c>
+      <c r="J137">
         <v>2007</v>
       </c>
-      <c r="K137" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="M137" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B138" t="s">
         <v>272</v>
@@ -6185,27 +7019,33 @@
         <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>288</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>404</v>
+        <v>297</v>
+      </c>
+      <c r="E138" t="s">
+        <v>551</v>
       </c>
       <c r="F138" t="s">
-        <v>477</v>
-      </c>
-      <c r="G138" t="s">
-        <v>368</v>
-      </c>
-      <c r="H138">
+        <v>551</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="H138" t="s">
+        <v>475</v>
+      </c>
+      <c r="I138" t="s">
+        <v>366</v>
+      </c>
+      <c r="J138">
         <v>1995</v>
       </c>
-      <c r="K138" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="M138" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B139" t="s">
         <v>276</v>
@@ -6214,27 +7054,33 @@
         <v>4</v>
       </c>
       <c r="D139" t="s">
-        <v>288</v>
-      </c>
-      <c r="E139" s="3">
+        <v>297</v>
+      </c>
+      <c r="E139" t="s">
+        <v>551</v>
+      </c>
+      <c r="F139" t="s">
+        <v>551</v>
+      </c>
+      <c r="G139" s="3">
         <v>341750</v>
       </c>
-      <c r="F139" t="s">
-        <v>417</v>
-      </c>
-      <c r="G139" t="s">
+      <c r="H139" t="s">
+        <v>415</v>
+      </c>
+      <c r="I139" t="s">
+        <v>318</v>
+      </c>
+      <c r="J139">
+        <v>1982</v>
+      </c>
+      <c r="M139" t="s">
         <v>320</v>
       </c>
-      <c r="H139">
-        <v>1982</v>
-      </c>
-      <c r="K139" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B140" t="s">
         <v>274</v>
@@ -6243,27 +7089,33 @@
         <v>4</v>
       </c>
       <c r="D140" t="s">
-        <v>288</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>428</v>
+        <v>297</v>
+      </c>
+      <c r="E140" t="s">
+        <v>551</v>
       </c>
       <c r="F140" t="s">
-        <v>427</v>
-      </c>
-      <c r="G140" t="s">
+        <v>551</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="H140" t="s">
+        <v>425</v>
+      </c>
+      <c r="I140" t="s">
+        <v>318</v>
+      </c>
+      <c r="J140">
+        <v>1995</v>
+      </c>
+      <c r="M140" t="s">
         <v>320</v>
       </c>
-      <c r="H140">
-        <v>1995</v>
-      </c>
-      <c r="K140" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B141" t="s">
         <v>271</v>
@@ -6272,27 +7124,33 @@
         <v>4</v>
       </c>
       <c r="D141" t="s">
+        <v>297</v>
+      </c>
+      <c r="E141" t="s">
+        <v>551</v>
+      </c>
+      <c r="F141" t="s">
+        <v>551</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="H141" t="s">
+        <v>427</v>
+      </c>
+      <c r="I141" t="s">
+        <v>318</v>
+      </c>
+      <c r="J141">
+        <v>1994</v>
+      </c>
+      <c r="M141" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" t="s">
         <v>288</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="F141" t="s">
-        <v>429</v>
-      </c>
-      <c r="G141" t="s">
-        <v>320</v>
-      </c>
-      <c r="H141">
-        <v>1994</v>
-      </c>
-      <c r="K141" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
-      <c r="A142" t="s">
-        <v>289</v>
       </c>
       <c r="B142" t="s">
         <v>269</v>
@@ -6301,33 +7159,39 @@
         <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>288</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>435</v>
+        <v>297</v>
+      </c>
+      <c r="E142" t="s">
+        <v>551</v>
       </c>
       <c r="F142" t="s">
-        <v>343</v>
-      </c>
-      <c r="G142" t="s">
+        <v>551</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="H142" t="s">
+        <v>341</v>
+      </c>
+      <c r="I142" t="s">
+        <v>432</v>
+      </c>
+      <c r="J142">
+        <v>2010</v>
+      </c>
+      <c r="K142" t="s">
         <v>434</v>
       </c>
-      <c r="H142">
-        <v>2010</v>
-      </c>
-      <c r="I142" t="s">
-        <v>436</v>
-      </c>
-      <c r="J142">
+      <c r="L142">
         <v>8</v>
       </c>
-      <c r="K142" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
+      <c r="M142" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B143" t="s">
         <v>268</v>
@@ -6336,24 +7200,30 @@
         <v>4</v>
       </c>
       <c r="D143" t="s">
-        <v>288</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>548</v>
+        <v>297</v>
+      </c>
+      <c r="E143" t="s">
+        <v>551</v>
       </c>
       <c r="F143" t="s">
-        <v>320</v>
-      </c>
-      <c r="G143" t="s">
-        <v>320</v>
-      </c>
-      <c r="K143" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
+        <v>551</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="H143" t="s">
+        <v>318</v>
+      </c>
+      <c r="I143" t="s">
+        <v>318</v>
+      </c>
+      <c r="M143" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B144" t="s">
         <v>284</v>
@@ -6362,27 +7232,33 @@
         <v>4</v>
       </c>
       <c r="D144" t="s">
-        <v>305</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>498</v>
+        <v>304</v>
+      </c>
+      <c r="E144" t="s">
+        <v>304</v>
       </c>
       <c r="F144" t="s">
-        <v>348</v>
-      </c>
-      <c r="G144" t="s">
-        <v>342</v>
-      </c>
-      <c r="H144">
+        <v>304</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="H144" t="s">
+        <v>346</v>
+      </c>
+      <c r="I144" t="s">
+        <v>340</v>
+      </c>
+      <c r="J144">
         <v>1997</v>
       </c>
-      <c r="K144" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="M144" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B145" t="s">
         <v>285</v>
@@ -6391,27 +7267,33 @@
         <v>4</v>
       </c>
       <c r="D145" t="s">
-        <v>305</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>499</v>
+        <v>304</v>
+      </c>
+      <c r="E145" t="s">
+        <v>304</v>
       </c>
       <c r="F145" t="s">
-        <v>348</v>
-      </c>
-      <c r="G145" t="s">
-        <v>342</v>
-      </c>
-      <c r="H145">
+        <v>304</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="H145" t="s">
+        <v>346</v>
+      </c>
+      <c r="I145" t="s">
+        <v>340</v>
+      </c>
+      <c r="J145">
         <v>1997</v>
       </c>
-      <c r="K145" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="M145" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B146" t="s">
         <v>286</v>
@@ -6420,27 +7302,33 @@
         <v>4</v>
       </c>
       <c r="D146" t="s">
-        <v>308</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>365</v>
+        <v>307</v>
+      </c>
+      <c r="E146" t="s">
+        <v>307</v>
       </c>
       <c r="F146" t="s">
-        <v>357</v>
-      </c>
-      <c r="G146" t="s">
-        <v>320</v>
-      </c>
-      <c r="H146">
+        <v>307</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H146" t="s">
+        <v>355</v>
+      </c>
+      <c r="I146" t="s">
+        <v>318</v>
+      </c>
+      <c r="J146">
         <v>1975</v>
       </c>
-      <c r="K146" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="M146" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B147" t="s">
         <v>287</v>
@@ -6449,30 +7337,36 @@
         <v>4</v>
       </c>
       <c r="D147" t="s">
-        <v>308</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>425</v>
+        <v>307</v>
+      </c>
+      <c r="E147" t="s">
+        <v>307</v>
       </c>
       <c r="F147" t="s">
-        <v>357</v>
-      </c>
-      <c r="G147" t="s">
-        <v>320</v>
-      </c>
-      <c r="H147">
+        <v>307</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="H147" t="s">
+        <v>355</v>
+      </c>
+      <c r="I147" t="s">
+        <v>318</v>
+      </c>
+      <c r="J147">
         <v>1973</v>
       </c>
-      <c r="K147" t="s">
-        <v>426</v>
+      <c r="M147" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L147">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N147">
     <sortCondition ref="B2:B147"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="L134" r:id="rId1" xr:uid="{3F541F60-8157-A34B-9404-D6AA25894B98}"/>
+    <hyperlink ref="N134" r:id="rId1" xr:uid="{3F541F60-8157-A34B-9404-D6AA25894B98}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
